--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48299.87462788756</v>
+        <v>9611675.05094962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48299.87462788756</v>
+        <v>9611675.05094962</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1912.137076081608</v>
+        <v>114728.2245648965</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1912.137076081608</v>
+        <v>114728.2245648965</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342227362.582127</v>
+        <v>54637241.42607179</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10999.57010920926</v>
+        <v>1196754.729101453</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21394.73928716678</v>
+        <v>2298709.639392472</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31789.90846512431</v>
+        <v>3400664.549683494</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42568.46271001099</v>
+        <v>4513392.683849301</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53291.18665186738</v>
+        <v>5615010.587712077</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64013.91059372376</v>
+        <v>6716628.491574852</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74736.63453558013</v>
+        <v>7818246.395437623</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85459.35847743652</v>
+        <v>8919864.299300393</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96569.59025663169</v>
+        <v>10013458.12878741</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107625.1796115844</v>
+        <v>11096178.11585018</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118536.4092302071</v>
+        <v>12198133.0261412</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129196.4024851934</v>
+        <v>13288977.7061292</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139912.2260432101</v>
+        <v>14390932.61642023</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150628.0496012267</v>
+        <v>15492887.52671126</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161343.8731592434</v>
+        <v>16594842.43700228</v>
       </c>
     </row>
   </sheetData>
